--- a/ExtraClase/RestriccionesNegocio.xlsx
+++ b/ExtraClase/RestriccionesNegocio.xlsx
@@ -5,27 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a956f53eadd4fd8/Escritorio/U/2024-2/IS2/Clase/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arias Ramirez\OneDrive\Escritorio\U\2024-2\IS2\ExtraClase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_AD4D2F04E46CFB4ACB3E202A4556F4B4693EDF10" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5413C3EC-C4CA-4441-BE46-2AB37B98EC4D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F7C6E0-1B2A-40CC-ACE7-50C078E7B521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RestriccionesNegocio" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t xml:space="preserve">Tipo </t>
   </si>
@@ -52,13 +63,64 @@
   </si>
   <si>
     <t xml:space="preserve">El proyecto cuenta con un tiempo limite desde su inicio el 24 de octubre de 2022 hasta su lanzamiento de 18 meses, el 24 de abril de 2024 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ej </t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Restricción de Negocio</t>
+  </si>
+  <si>
+    <t>Justificación</t>
+  </si>
+  <si>
+    <t>Humano</t>
+  </si>
+  <si>
+    <t>El equipo de negocio solamente cuenta con una hora diaria para trabajar en el proyecto.</t>
+  </si>
+  <si>
+    <t>Se debe plantear una estrategia sólida que permita la distribución de trabajo y aprovechar este tiempo disponible para la ejecución del proyect debido a la limitante que poseen sus integrantes.</t>
+  </si>
+  <si>
+    <t>Tiempo</t>
+  </si>
+  <si>
+    <t>El proyecto cuenta con un tiempo límite desde su inicio el 24 de octubre de 2022 hasta su lanzamiento de 18 meses, el 24 de abril de 2024.</t>
+  </si>
+  <si>
+    <t>El proyecto cuenta con esta limitante de tiempo para su desarrollo por ser un proyecto que se compone por estudiantes y asesores de la Universidad Católica de Oriente, lo cual le permite a esta institución establecer las restricciones de tiempo que sean pertinentes.</t>
+  </si>
+  <si>
+    <t>Legal</t>
+  </si>
+  <si>
+    <t>Cumplimiento de regulaciones para la promoción y comercialización de hortalizas.</t>
+  </si>
+  <si>
+    <t>Es imperativo acogerse a las leyes de promoción y comercialización de hortalizas y hacer uso de las asociaciones para identificar todos estos puntos importantes que se deben cubrir para evitar incurrir en líos legales.</t>
+  </si>
+  <si>
+    <t>Garantizar que los contratos inteligentes y la tecnología empleada cumplan con las leyes y regulaciones locales</t>
+  </si>
+  <si>
+    <t>Debido a que esta tecnología es bastante nueva en el tema comercial Colombiano, es importante acogerse a las regulaciones que se implementan para esta.</t>
+  </si>
+  <si>
+    <t>Garantizar el habeas data para todos los usuarios de la plataforma</t>
+  </si>
+  <si>
+    <t>De acuerdo con las leyes Colombianas, todos los datos personales de los usuarios deben ser protegidos y salvaguardados siguendo unos protocolos estrictos de seguridad.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +136,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -83,7 +160,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -91,17 +168,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -383,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,6 +533,77 @@
         <v>7</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
